--- a/results/birth/SEED_42/result.xlsx
+++ b/results/birth/SEED_42/result.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AR12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,18 @@
       <c r="AH1" s="1" t="n"/>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>BOUNDARY</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="n"/>
+      <c r="AM1" s="1" t="n"/>
+      <c r="AN1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="n"/>
+      <c r="AQ1" s="1" t="n"/>
+      <c r="AR1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="B2" s="1" t="inlineStr">
@@ -723,6 +735,46 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -848,6 +900,30 @@
       </c>
       <c r="AJ4" t="n">
         <v>2491.310756778717</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>429.9866724268595</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>432.1328560256958</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>438.2829358355204</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>441.9419984690348</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>458.2547001711528</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>467.7945947647095</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>476.5419515482585</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>652.0824718093872</v>
       </c>
     </row>
     <row r="5">
@@ -959,6 +1035,30 @@
       <c r="AJ5" t="n">
         <v>2654.616280091787</v>
       </c>
+      <c r="AK5" t="n">
+        <v>526.879090701764</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>528.7592190548929</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>532.465842137164</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>539.6932150139494</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>554.7810853149108</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>565.2909471172483</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>569.3211817184498</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>824.4355533053063</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -974,7 +1074,7 @@
         <v>0.9993815186656728</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9989914276568979</v>
+        <v>0.9989914276568976</v>
       </c>
       <c r="F6" t="n">
         <v>0.9989760925922493</v>
@@ -983,22 +1083,22 @@
         <v>0.9989767410995215</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9989185339197605</v>
+        <v>0.9989185339197603</v>
       </c>
       <c r="I6" t="n">
         <v>0.998873882824079</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9987771386465389</v>
+        <v>0.9987771386465392</v>
       </c>
       <c r="K6" t="n">
-        <v>0.998484680226195</v>
+        <v>0.9984846802261947</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9981562031166323</v>
+        <v>0.9981562031166326</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9989853082799082</v>
+        <v>0.9989853082799081</v>
       </c>
       <c r="N6" t="n">
         <v>0.9989654666881351</v>
@@ -1013,7 +1113,7 @@
         <v>0.9989546202079761</v>
       </c>
       <c r="R6" t="n">
-        <v>0.998904910103822</v>
+        <v>0.9989049101038218</v>
       </c>
       <c r="S6" t="n">
         <v>0.9987195344547228</v>
@@ -1025,10 +1125,10 @@
         <v>0.9986631403860394</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9982819839665026</v>
+        <v>0.9982819839665024</v>
       </c>
       <c r="W6" t="n">
-        <v>0.9977865002336594</v>
+        <v>0.9977865002336597</v>
       </c>
       <c r="X6" t="n">
         <v>0.9972709958942164</v>
@@ -1046,7 +1146,7 @@
         <v>0.9779692080041381</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9986139945326121</v>
+        <v>0.998613994532612</v>
       </c>
       <c r="AD6" t="n">
         <v>0.9981450601498022</v>
@@ -1055,10 +1155,10 @@
         <v>0.997578187397485</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9968637635670511</v>
+        <v>0.9968637635670509</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.9960858956958419</v>
+        <v>0.9960858956958423</v>
       </c>
       <c r="AH6" t="n">
         <v>0.9936364148875081</v>
@@ -1068,6 +1168,30 @@
       </c>
       <c r="AJ6" t="n">
         <v>0.9750957791920269</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.9989798422214393</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.998972084297574</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.998956535769256</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.9989305246276561</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.9988709320757765</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.9988615007234319</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.9988037831648963</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.9974962230004524</v>
       </c>
     </row>
     <row r="7">
@@ -1182,6 +1306,30 @@
       </c>
       <c r="AJ7" t="n">
         <v>1993.526755798658</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>397.4771784273784</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>399.6712321281433</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>400.1091247812907</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>412.6248471069336</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>419.6750252087911</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>464.7955890782674</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>492.2165950520833</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>778.9044143040975</v>
       </c>
     </row>
     <row r="8">
@@ -1293,6 +1441,30 @@
       <c r="AJ8" t="n">
         <v>2060.25630295277</v>
       </c>
+      <c r="AK8" t="n">
+        <v>516.8373745255692</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>518.6026726811065</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>519.8309088780161</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>528.8819728631149</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>536.9590687835486</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>594.5860379004587</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>651.2489338147866</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>959.3623680262759</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1302,31 +1474,31 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9992496037173064</v>
+        <v>0.9992496037173066</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9992423920092126</v>
+        <v>0.9992423920092128</v>
       </c>
       <c r="E9" t="n">
         <v>0.999208779411896</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9991572439177916</v>
+        <v>0.999157243917792</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9990948497268952</v>
+        <v>0.9990948497268954</v>
       </c>
       <c r="H9" t="n">
         <v>0.9990226099227991</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9989387630646052</v>
+        <v>0.9989387630646054</v>
       </c>
       <c r="J9" t="n">
         <v>0.9986792258600404</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9983435919244247</v>
+        <v>0.9983435919244245</v>
       </c>
       <c r="L9" t="n">
         <v>0.9963980144652037</v>
@@ -1341,10 +1513,10 @@
         <v>0.9991106181365162</v>
       </c>
       <c r="P9" t="n">
-        <v>0.9990567408627171</v>
+        <v>0.9990567408627172</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.999000980017672</v>
+        <v>0.9990009800176723</v>
       </c>
       <c r="R9" t="n">
         <v>0.9988693494417048</v>
@@ -1362,13 +1534,13 @@
         <v>0.9988621893829753</v>
       </c>
       <c r="W9" t="n">
-        <v>0.9986066879513896</v>
+        <v>0.9986066879513898</v>
       </c>
       <c r="X9" t="n">
         <v>0.9983075368111496</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9979590840130076</v>
+        <v>0.9979590840130074</v>
       </c>
       <c r="Z9" t="n">
         <v>0.996846483819418</v>
@@ -1389,7 +1561,7 @@
         <v>0.9986537275690403</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9983719084275866</v>
+        <v>0.9983719084275864</v>
       </c>
       <c r="AG9" t="n">
         <v>0.9980381865848987</v>
@@ -1398,10 +1570,34 @@
         <v>0.996942208821277</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.9954034259128796</v>
+        <v>0.9954034259128793</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9852036529759524</v>
+        <v>0.9852036529759525</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.9992333950942115</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.9992350673850453</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9992230233412658</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.9992157602768351</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.9991527386700584</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.9988674522484662</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.998639055191368</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.9969367382912717</v>
       </c>
     </row>
     <row r="10">
@@ -1516,6 +1712,30 @@
       </c>
       <c r="AJ10" t="n">
         <v>2110.039257024129</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>306.5038069725036</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>307.0465618006388</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>312.7120273844401</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>340.8137208811442</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>338.9568512598673</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>381.1121523920695</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>394.5817514101664</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>706.387831103007</v>
       </c>
     </row>
     <row r="11">
@@ -1627,6 +1847,30 @@
       <c r="AJ11" t="n">
         <v>2168.704458833222</v>
       </c>
+      <c r="AK11" t="n">
+        <v>419.5447428040518</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>414.9333354934766</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>423.5129873958635</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>460.5121916836027</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>454.1124385065061</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>514.3530651598844</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>536.4903620755837</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>891.6669043707768</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1645,19 +1889,19 @@
         <v>0.9992567865487393</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9992553124273976</v>
+        <v>0.9992553124273974</v>
       </c>
       <c r="G12" t="n">
-        <v>0.999245185469795</v>
+        <v>0.9992451854697948</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9992261846084266</v>
+        <v>0.9992261846084264</v>
       </c>
       <c r="I12" t="n">
         <v>0.9991981961263471</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9990903949289375</v>
+        <v>0.9990903949289373</v>
       </c>
       <c r="K12" t="n">
         <v>0.998924079953596</v>
@@ -1666,7 +1910,7 @@
         <v>0.9974705028026621</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9993525299746105</v>
+        <v>0.999352529974611</v>
       </c>
       <c r="N12" t="n">
         <v>0.9993514777485709</v>
@@ -1681,10 +1925,10 @@
         <v>0.9992856229823101</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9991805740570842</v>
+        <v>0.9991805740570844</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9989760492569434</v>
+        <v>0.9989760492569433</v>
       </c>
       <c r="T12" t="n">
         <v>0.9977471246991503</v>
@@ -1696,7 +1940,7 @@
         <v>0.9989393571845601</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9986672514997202</v>
+        <v>0.9986672514997205</v>
       </c>
       <c r="X12" t="n">
         <v>0.9983474783096947</v>
@@ -1705,13 +1949,13 @@
         <v>0.9979764487748146</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.996824244781123</v>
+        <v>0.9968242447811232</v>
       </c>
       <c r="AA12" t="n">
         <v>0.9953388526753497</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.9865924354164555</v>
+        <v>0.9865924354164557</v>
       </c>
       <c r="AC12" t="n">
         <v>0.9990898087054174</v>
@@ -1732,20 +1976,45 @@
         <v>0.9953893386027011</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.9930027546959713</v>
+        <v>0.9930027546959711</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.9811294610239202</v>
       </c>
+      <c r="AK12" t="n">
+        <v>0.9993254988044271</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.999341280220878</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.9993120574863638</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.999181721992064</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.9992135930996382</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.998969762262799</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.9988815050240373</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.9968422392808229</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="M1:T1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="AC1:AJ1"/>
+    <mergeCell ref="AK1:AR1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
